--- a/SchedulingData/dynamic9/pso/scheduling1_2.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_2.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>54.88</v>
+        <v>29.88</v>
       </c>
       <c r="E2" t="n">
-        <v>26.192</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.62</v>
+        <v>81.2</v>
       </c>
       <c r="E3" t="n">
-        <v>27.008</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.2</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4</v>
+        <v>142.78</v>
       </c>
       <c r="E4" t="n">
-        <v>26.34</v>
+        <v>20.492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.28</v>
+        <v>62.02</v>
       </c>
       <c r="E5" t="n">
-        <v>26.172</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51.62</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>98.88</v>
+        <v>56.64</v>
       </c>
       <c r="E6" t="n">
-        <v>24.412</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98.88</v>
+        <v>29.88</v>
       </c>
       <c r="D7" t="n">
-        <v>148.2</v>
+        <v>90.28</v>
       </c>
       <c r="E7" t="n">
-        <v>20.62</v>
+        <v>23.292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54.88</v>
+        <v>142.78</v>
       </c>
       <c r="D8" t="n">
-        <v>93.95999999999999</v>
+        <v>186.2</v>
       </c>
       <c r="E8" t="n">
-        <v>23.904</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.28</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7</v>
+        <v>64.52</v>
       </c>
       <c r="E9" t="n">
-        <v>22.14</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="D10" t="n">
-        <v>63.1</v>
+        <v>113.26</v>
       </c>
       <c r="E10" t="n">
-        <v>25.86</v>
+        <v>22.464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>90.28</v>
       </c>
       <c r="D11" t="n">
-        <v>96.78</v>
+        <v>130.12</v>
       </c>
       <c r="E11" t="n">
-        <v>25.952</v>
+        <v>19.948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>96.78</v>
+        <v>186.2</v>
       </c>
       <c r="D12" t="n">
-        <v>150.42</v>
+        <v>267.9</v>
       </c>
       <c r="E12" t="n">
-        <v>22.208</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>93.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>155</v>
+        <v>45.28</v>
       </c>
       <c r="E13" t="n">
-        <v>20.42</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63.1</v>
+        <v>113.26</v>
       </c>
       <c r="D14" t="n">
-        <v>111.48</v>
+        <v>159.38</v>
       </c>
       <c r="E14" t="n">
-        <v>23.132</v>
+        <v>19.472</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148.2</v>
+        <v>56.64</v>
       </c>
       <c r="D15" t="n">
-        <v>204.18</v>
+        <v>130.16</v>
       </c>
       <c r="E15" t="n">
-        <v>17.652</v>
+        <v>21.784</v>
       </c>
     </row>
     <row r="16">
@@ -732,131 +732,131 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>106.7</v>
+        <v>45.28</v>
       </c>
       <c r="D16" t="n">
-        <v>169.92</v>
+        <v>103.28</v>
       </c>
       <c r="E16" t="n">
-        <v>18.928</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>155</v>
+        <v>130.16</v>
       </c>
       <c r="D17" t="n">
-        <v>205.58</v>
+        <v>200.46</v>
       </c>
       <c r="E17" t="n">
-        <v>17.472</v>
+        <v>16.864</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>205.58</v>
+        <v>159.38</v>
       </c>
       <c r="D18" t="n">
-        <v>285.98</v>
+        <v>221.98</v>
       </c>
       <c r="E18" t="n">
-        <v>12.552</v>
+        <v>15.832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>204.18</v>
+        <v>103.28</v>
       </c>
       <c r="D19" t="n">
-        <v>250.78</v>
+        <v>168.86</v>
       </c>
       <c r="E19" t="n">
-        <v>14.612</v>
+        <v>19.044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>285.98</v>
+        <v>168.86</v>
       </c>
       <c r="D20" t="n">
-        <v>358.18</v>
+        <v>236.06</v>
       </c>
       <c r="E20" t="n">
-        <v>8.912000000000001</v>
+        <v>15.444</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53.4</v>
+        <v>62.02</v>
       </c>
       <c r="D21" t="n">
-        <v>110.5</v>
+        <v>129.82</v>
       </c>
       <c r="E21" t="n">
-        <v>22.26</v>
+        <v>21.828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>250.78</v>
+        <v>129.82</v>
       </c>
       <c r="D22" t="n">
-        <v>302.82</v>
+        <v>185.5</v>
       </c>
       <c r="E22" t="n">
-        <v>11.028</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="23">
@@ -865,169 +865,169 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>111.48</v>
+        <v>221.98</v>
       </c>
       <c r="D23" t="n">
-        <v>175</v>
+        <v>269.04</v>
       </c>
       <c r="E23" t="n">
-        <v>18.4</v>
+        <v>13.236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>110.5</v>
+        <v>200.46</v>
       </c>
       <c r="D24" t="n">
-        <v>190.1</v>
+        <v>269.44</v>
       </c>
       <c r="E24" t="n">
-        <v>18.88</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>302.82</v>
+        <v>185.5</v>
       </c>
       <c r="D25" t="n">
-        <v>345.04</v>
+        <v>239.08</v>
       </c>
       <c r="E25" t="n">
-        <v>8.436</v>
+        <v>16.152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>190.1</v>
+        <v>130.12</v>
       </c>
       <c r="D26" t="n">
-        <v>237.5</v>
+        <v>194.82</v>
       </c>
       <c r="E26" t="n">
-        <v>15.28</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>150.42</v>
+        <v>267.9</v>
       </c>
       <c r="D27" t="n">
-        <v>215.72</v>
+        <v>325.6</v>
       </c>
       <c r="E27" t="n">
-        <v>17.788</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>169.92</v>
+        <v>239.08</v>
       </c>
       <c r="D28" t="n">
-        <v>247.12</v>
+        <v>296.2</v>
       </c>
       <c r="E28" t="n">
-        <v>14.788</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>175</v>
+        <v>194.82</v>
       </c>
       <c r="D29" t="n">
-        <v>246</v>
+        <v>241.62</v>
       </c>
       <c r="E29" t="n">
-        <v>12.94</v>
+        <v>13.528</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>237.5</v>
+        <v>236.06</v>
       </c>
       <c r="D30" t="n">
-        <v>301.84</v>
+        <v>308.1</v>
       </c>
       <c r="E30" t="n">
-        <v>11.936</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>247.12</v>
+        <v>241.62</v>
       </c>
       <c r="D31" t="n">
-        <v>295.12</v>
+        <v>314.12</v>
       </c>
       <c r="E31" t="n">
-        <v>10.628</v>
+        <v>9.868</v>
       </c>
     </row>
   </sheetData>
